--- a/Dataframe/precos_book.xlsx
+++ b/Dataframe/precos_book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="9">
   <si>
     <t>Fonte</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Horas</t>
   </si>
   <si>
     <t>Forecast Assumptions</t>
@@ -399,13 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,16 +421,19 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>44562</v>
@@ -435,16 +441,19 @@
       <c r="E2">
         <v>62.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>44593</v>
@@ -452,16 +461,19 @@
       <c r="E3">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>44621</v>
@@ -469,16 +481,19 @@
       <c r="E4">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>44652</v>
@@ -486,16 +501,19 @@
       <c r="E5">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>44682</v>
@@ -503,16 +521,19 @@
       <c r="E6">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>44713</v>
@@ -520,16 +541,19 @@
       <c r="E7">
         <v>55.71</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>44743</v>
@@ -537,16 +561,19 @@
       <c r="E8">
         <v>66.31999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>44774</v>
@@ -554,16 +581,19 @@
       <c r="E9">
         <v>76.90000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>44805</v>
@@ -571,16 +601,19 @@
       <c r="E10">
         <v>56.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>44835</v>
@@ -588,16 +621,19 @@
       <c r="E11">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>44866</v>
@@ -605,16 +641,19 @@
       <c r="E12">
         <v>55.69999999999989</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>44896</v>
@@ -622,821 +661,968 @@
       <c r="E13">
         <v>55.6999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>44927</v>
       </c>
       <c r="E14">
-        <v>69.01000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>44958</v>
       </c>
       <c r="E15">
-        <v>69.26000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>69.7</v>
+      </c>
+      <c r="F15">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2">
         <v>44986</v>
       </c>
       <c r="E16">
-        <v>69.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>69.62</v>
+      </c>
+      <c r="F16">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>45017</v>
       </c>
       <c r="E17">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>70.12</v>
+      </c>
+      <c r="F17">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
         <v>45047</v>
       </c>
       <c r="E18">
-        <v>70.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>70.38</v>
+      </c>
+      <c r="F18">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>45078</v>
       </c>
       <c r="E19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>72.75</v>
+      </c>
+      <c r="F19">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>45108</v>
       </c>
       <c r="E20">
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="F20">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>45139</v>
       </c>
       <c r="E21">
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="F21">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
         <v>45170</v>
       </c>
       <c r="E22">
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="F22">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
         <v>45200</v>
       </c>
       <c r="E23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="F23">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
         <v>45231</v>
       </c>
       <c r="E24">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="F24">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>45261</v>
       </c>
       <c r="E25">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="F25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2">
         <v>45292</v>
       </c>
       <c r="E26">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F26">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2">
         <v>45323</v>
       </c>
       <c r="E27">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F27">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2">
         <v>45352</v>
       </c>
       <c r="E28">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F28">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2">
         <v>45383</v>
       </c>
       <c r="E29">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F29">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2">
         <v>45413</v>
       </c>
       <c r="E30">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F30">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>45444</v>
       </c>
       <c r="E31">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2">
         <v>45474</v>
       </c>
       <c r="E32">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F32">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>45505</v>
       </c>
       <c r="E33">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F33">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2">
         <v>45536</v>
       </c>
       <c r="E34">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F34">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2">
         <v>45566</v>
       </c>
       <c r="E35">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F35">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2">
         <v>45597</v>
       </c>
       <c r="E36">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F36">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2">
         <v>45627</v>
       </c>
       <c r="E37">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>94.75</v>
+      </c>
+      <c r="F37">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2">
         <v>45658</v>
       </c>
       <c r="E38">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F38">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2">
         <v>45689</v>
       </c>
       <c r="E39">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F39">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2">
         <v>45717</v>
       </c>
       <c r="E40">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F40">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2">
         <v>45748</v>
       </c>
       <c r="E41">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F41">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2">
         <v>45778</v>
       </c>
       <c r="E42">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F42">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2">
         <v>45809</v>
       </c>
       <c r="E43">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F43">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2">
         <v>45839</v>
       </c>
       <c r="E44">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F44">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2">
         <v>45870</v>
       </c>
       <c r="E45">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F45">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2">
         <v>45901</v>
       </c>
       <c r="E46">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F46">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2">
         <v>45931</v>
       </c>
       <c r="E47">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F47">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2">
         <v>45962</v>
       </c>
       <c r="E48">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F48">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2">
         <v>45992</v>
       </c>
       <c r="E49">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F49">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2">
         <v>46023</v>
       </c>
       <c r="E50">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F50">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2">
         <v>46054</v>
       </c>
       <c r="E51">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F51">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2">
         <v>46082</v>
       </c>
       <c r="E52">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F52">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2">
         <v>46113</v>
       </c>
       <c r="E53">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F53">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2">
         <v>46143</v>
       </c>
       <c r="E54">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F54">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2">
         <v>46174</v>
       </c>
       <c r="E55">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F55">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2">
         <v>46204</v>
       </c>
       <c r="E56">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F56">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2">
         <v>46235</v>
       </c>
       <c r="E57">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F57">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2">
         <v>46266</v>
       </c>
       <c r="E58">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F58">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2">
         <v>46296</v>
       </c>
       <c r="E59">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F59">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2">
         <v>46327</v>
       </c>
       <c r="E60">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>107.5</v>
+      </c>
+      <c r="F60">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2">
         <v>46357</v>
       </c>
       <c r="E61">
-        <v>112.6</v>
+        <v>107.5</v>
+      </c>
+      <c r="F61">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
